--- a/Op_Text_vigo.xlsx
+++ b/Op_Text_vigo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\StoreMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\study\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4334910E-AC2A-4827-B6FD-442C02262804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60977734-ADF3-48BD-A5EB-D11C7015060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0B9B151F-247F-437D-879E-F1C04A1A7356}"/>
   </bookViews>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="394">
   <si>
     <t>Optional</t>
   </si>
@@ -1206,6 +1228,21 @@
   </si>
   <si>
     <t>826A</t>
+  </si>
+  <si>
+    <t>tân khánh</t>
+  </si>
+  <si>
+    <t>khu vực</t>
+  </si>
+  <si>
+    <t>mai thị non</t>
+  </si>
+  <si>
+    <t>26 tháng 3</t>
+  </si>
+  <si>
+    <t>26/3</t>
   </si>
 </sst>
 </file>
@@ -1574,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDFFBE1-422E-4732-AF0C-7DF34C187B8B}">
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="B386" sqref="B386"/>
+    <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
+      <selection activeCell="A772" sqref="A772:B772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3689,8 +3726,2115 @@
         <v>826</v>
       </c>
     </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" t="str" cm="1">
+        <f t="array" ref="A387:A771">LOWER(A2:A386)</f>
+        <v>(dưới dốc cầ huyện cầu kè tỉnh trà vinh</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" t="str">
+        <v>ap</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" t="str">
+        <v>ap</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" t="str">
+        <v>âp</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" t="str">
+        <v>chợ</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" t="str">
+        <v>đ.</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" t="str">
+        <v>đại lộ</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" t="str">
+        <v>dt</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" t="str">
+        <v>dt</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" t="str">
+        <v>dt</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" t="str">
+        <v>đt</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" t="str">
+        <v>đt</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" t="str">
+        <v>duong</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" t="str">
+        <v>đường</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" t="str">
+        <v xml:space="preserve">đường </v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" t="str">
+        <v>hem</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" t="str">
+        <v>hẻm</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" t="str">
+        <v>hẻm</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" t="str">
+        <v>hl</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" t="str">
+        <v>hương lộ</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" t="str">
+        <v>hương lộ</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" t="str">
+        <v>huyện</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" t="str">
+        <v>khu phố</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" t="str">
+        <v>kp</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" t="str">
+        <v>kp</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" t="str">
+        <v>phường</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" t="str">
+        <v>ql</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" t="str">
+        <v>ql</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" t="str">
+        <v>quoc lo</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" t="str">
+        <v>quốc lộ</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" t="str">
+        <v>số</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" t="str">
+        <v>thành phố</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" t="str">
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" t="str">
+        <v>thị xã</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" t="str">
+        <v>tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" t="str">
+        <v>tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" t="str">
+        <v>tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" t="str">
+        <v>tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" t="str">
+        <v>tỉnh</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" t="str">
+        <v>tl</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" t="str">
+        <v>tl</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" t="str">
+        <v>tổ</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" t="str">
+        <v>xã</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" t="str">
+        <v>quốc lộ</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" t="str">
+        <v xml:space="preserve">cầu </v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" t="str">
+        <v>đuong</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" t="str">
+        <v>khu dân cư</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" t="str">
+        <v>khom</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" t="str">
+        <v xml:space="preserve">quốc lộ </v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" t="str">
+        <v>gần</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" t="str">
+        <v>quán</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" t="str">
+        <v>cách</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" t="str">
+        <v>500m vôcửakhẩu</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" t="str">
+        <v>chợ</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" t="str">
+        <v>gần</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" t="str">
+        <v>ubnd</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" t="str">
+        <v>trụ điện</v>
+      </c>
+      <c r="B453" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" t="str">
+        <v>hương lộ</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" t="str">
+        <v xml:space="preserve">đ/diện </v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" t="str">
+        <v>ub</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" t="str">
+        <v>đ/d</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" t="str">
+        <v>đ/d</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" t="str">
+        <v>cách</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" t="str">
+        <v>200m</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" t="str">
+        <v>100m</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" t="str">
+        <v>50m</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" t="str">
+        <v>số</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" t="str">
+        <v>phường</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" t="str">
+        <v>-&gt; 300m</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" t="str">
+        <v>hl</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" t="str">
+        <v>tỉnh</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" t="str">
+        <v>đường tỉnh</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" t="str">
+        <v>đường tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" t="str">
+        <v>ủy ban</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" t="str">
+        <v>trường cấp 2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" t="str">
+        <v>thcs</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" t="str">
+        <v>thpt</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" t="str">
+        <v>kênh</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" t="str">
+        <v>khom</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483" t="str">
+        <v>khu dân cư</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A484" t="str">
+        <v>kinh</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A485" t="str">
+        <v>kế bên shop</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A486" t="str">
+        <v>shop</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A487" t="str">
+        <v xml:space="preserve">tp </v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A488" t="str">
+        <v>cây xăng</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A489" t="str">
+        <v>từ</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A490" t="str">
+        <v>tx</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A491" t="str">
+        <v xml:space="preserve">xã </v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A492" t="str">
+        <v>nằm đầu</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A493" t="str">
+        <v>gần</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A494" t="str">
+        <v xml:space="preserve">bvdk </v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A495" t="str">
+        <v xml:space="preserve">đầu đường  2 khu </v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A496" t="str">
+        <v xml:space="preserve">qua cầu </v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A497" t="str">
+        <v>cầu</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A498" t="str">
+        <v>bên trái</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A499" t="str">
+        <v>bên phải</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A500" t="str">
+        <v>quacau</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A501" t="str">
+        <v>nằm trên</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A502" t="str">
+        <v>300m</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A503" t="str">
+        <v>400m</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A504" t="str">
+        <v xml:space="preserve">t. </v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A505" t="str">
+        <v xml:space="preserve">đ/d nhnn </v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A506" t="str">
+        <v xml:space="preserve">bxe  </v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A507" t="str">
+        <v>bến xe</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A508" t="str">
+        <v>bến xe</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A509" t="str">
+        <v>bến xe</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A510" t="str">
+        <v>trụ điện</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A511" t="str">
+        <v>nhà nghỉ</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A512" t="str">
+        <v xml:space="preserve">đi </v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A513" t="str">
+        <v>trụ điện</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514" t="str">
+        <v>trường cấp 2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A515" t="str">
+        <v>trường c 2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516" t="str">
+        <v xml:space="preserve">trường </v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517" t="str">
+        <v>phía sau</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A518" t="str">
+        <v>đôi diện</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A519" t="str">
+        <v>nằm trên 53,  cầu300m</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A520" t="str">
+        <v>ngay tượng đà</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521" t="str">
+        <v>ngay</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A522" t="str">
+        <v>tượng đà</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A523" t="str">
+        <v>trường</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A524" t="str">
+        <v>khu di tíchnhà100cột</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A525" t="str">
+        <v xml:space="preserve"> nước mặn</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A526" t="str">
+        <v xml:space="preserve">dưới dốc </v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A527" t="str">
+        <v>trường thọc</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A528" t="str">
+        <v>lộ cũ</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" t="str">
+        <v>kế</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" t="str">
+        <v>đ/d khu dân cư</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" t="str">
+        <v>ủy tín dụng</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" t="str">
+        <v>chốt đèn đỏ</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" t="str">
+        <v>ủb</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" t="str">
+        <v xml:space="preserve">(qua </v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" t="str">
+        <v>5m</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" t="str">
+        <v>đ nguyễn văn đẹp</v>
+      </c>
+      <c r="B536" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" t="str">
+        <v>đ tân phước</v>
+      </c>
+      <c r="B537" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" t="str">
+        <v>đ 9</v>
+      </c>
+      <c r="B538">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" t="str">
+        <v>đ d8</v>
+      </c>
+      <c r="B539" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" t="str">
+        <v>c 2 c.</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" t="str">
+        <v>c.</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" t="str">
+        <v>đ/d</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" t="str">
+        <v>gần trường mgiao</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" t="str">
+        <v>mgiao</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" t="str">
+        <v>cũ</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" t="str">
+        <v xml:space="preserve">x. </v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" t="str">
+        <v>t.trấn</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" t="str">
+        <v>đường</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" t="str">
+        <v>việt nam</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" t="str">
+        <v>ba tri, bến tre, việt nam(  uỷ ban an thuỷ ) , an thủy, huyện ba tri</v>
+      </c>
+      <c r="B550" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" t="str">
+        <v>ql</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" t="str">
+        <v xml:space="preserve">cổng chào thành phố bến tre ,, </v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" t="str">
+        <v>tl</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" t="str">
+        <v>thanh tân, mỏ cày bắc, bến tre, , thanh tân, huyện mỏ cày bắc</v>
+      </c>
+      <c r="B554" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" t="str">
+        <v>khu phố</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" t="str">
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" t="str">
+        <v>huyện</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" t="str">
+        <v>4 thành phố bến tre,  4, thành phố bến tre, bến tre</v>
+      </c>
+      <c r="B558" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" t="str">
+        <v xml:space="preserve">quầy  </v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" t="str">
+        <v>5 thành phố bến tre,  5, thành phố bến tre, bến tre</v>
+      </c>
+      <c r="B560" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" t="str">
+        <v>thành phố</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" t="str">
+        <v>đt</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" t="str">
+        <v>đức hòa hạ, đức hòa, long an, , huyện đức hòa</v>
+      </c>
+      <c r="B563" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" t="str">
+        <v xml:space="preserve"> uỷ ban</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" t="str">
+        <v>bến tre,  4,  bến tre, bến tre</v>
+      </c>
+      <c r="B565" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" t="str">
+        <v>8  bến tre,  8,  bến tre, bến tre</v>
+      </c>
+      <c r="B566" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" t="str">
+        <v>đa lộc  châu thành  trà vinh, đa lộc,  châu thành, trà vinh</v>
+      </c>
+      <c r="B567" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" t="str">
+        <v>ba tri, , (  an thuỷ ) , , , an thủy,  ba tri, bến tre</v>
+      </c>
+      <c r="B568" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" t="str">
+        <v xml:space="preserve">đ. </v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" t="str">
+        <v>hương lộ</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" t="str">
+        <v>bến tre, ,  ba tri</v>
+      </c>
+      <c r="B571" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" t="str">
+        <v>an bình tây, ba tri, bến tre, , an bình tây,  ba tri</v>
+      </c>
+      <c r="B572" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" t="str">
+        <v>, ba tri, bến tre, , an bình tây,  ba tri</v>
+      </c>
+      <c r="B573" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" t="str">
+        <v>an ngãi tây, ba tri, bến tre, , an ngãi tây,  ba tri</v>
+      </c>
+      <c r="B574" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" t="str">
+        <v>(  ngã tư cái bông 1km</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" t="str">
+        <v>an ngãi trung, ba tri, bến tre, , an ngãi trung,  ba tri</v>
+      </c>
+      <c r="B576" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577" t="str">
+        <v xml:space="preserve">trụ </v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578" t="str">
+        <v xml:space="preserve"> 5, bảo thạnh, ba tri, bến tre ,  ba tri, bến tre</v>
+      </c>
+      <c r="B578" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579" t="str">
+        <v xml:space="preserve">trong  </v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580" t="str">
+        <v>ubnd</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A581" t="str">
+        <v>vĩnh hoà, ba tri, bến tre, , vĩnh hòa,  ba tri</v>
+      </c>
+      <c r="B581" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582" t="str">
+        <v>bình đại,  bình đại,  bình đại, bến tre</v>
+      </c>
+      <c r="B582" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583" t="str">
+        <v xml:space="preserve">x. </v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A584" t="str">
+        <v>h.</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A585" t="str">
+        <v>f.</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A586" t="str">
+        <v>tp</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A587" t="str">
+        <v>thcs</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A588" t="str">
+        <v>đương</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A589" t="str">
+        <v>ap</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A590" t="str">
+        <v>bìnnh thủy</v>
+      </c>
+      <c r="B590" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A591" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A592" t="str">
+        <v>hẽm</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A593" t="str">
+        <v>xa my hanh nam, mỹ hạnh nam,</v>
+      </c>
+      <c r="B593" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A594" t="str">
+        <v>cổng chào, ,</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A595" t="str">
+        <v xml:space="preserve"> 3 , mỹ cẫm càng long , , , , mỹ cẩm,  càng long, trà vinh</v>
+      </c>
+      <c r="B595" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A596" t="str">
+        <v xml:space="preserve">  4 mỹ cẫm   , , , , mỹ cẩm,  càng long, trà vinh</v>
+      </c>
+      <c r="B596" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A597" t="str">
+        <v xml:space="preserve">  lộ 883</v>
+      </c>
+      <c r="B597">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A598" t="str">
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A599" t="str">
+        <v xml:space="preserve"> lo  1</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A600" t="str">
+        <v xml:space="preserve"> lộ 17/1</v>
+      </c>
+      <c r="B600" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A601" t="str">
+        <v>30 tháng 4</v>
+      </c>
+      <c r="B601" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A602" t="str">
+        <v>n.v</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A603" t="str">
+        <v>cây xăng</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A604" t="str">
+        <v>chùa</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A605" t="str">
+        <v>chùa</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A606" t="str">
+        <v>cột đèn</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A607" t="str">
+        <v>cột điện</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A608" t="str">
+        <v>cột điện</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A609" t="str">
+        <v>cho</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A610" t="str">
+        <v>chùa</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A611" t="str">
+        <v xml:space="preserve">cột </v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A612" t="str">
+        <v>đ số</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A613" t="str">
+        <v>đại lộ</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A614" t="str">
+        <v>dd</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A615" t="str">
+        <v>đh</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A616" t="str">
+        <v>đl</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A617" t="str">
+        <v>tt</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A618" t="str">
+        <v>đối điện ca</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A619" t="str">
+        <v>đối điện</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A620" t="str">
+        <v>đt</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A621" t="str">
+        <v>đương</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A622" t="str">
+        <v>đừơng</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A623" t="str">
+        <v>tđc</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A624" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B624" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A625" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B625" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A626" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B626" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A627" t="str">
+        <v>quầy số</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A628" t="str">
+        <v>quốc lô</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A629" t="str">
+        <v>quốc lộ</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A630" t="str">
+        <v>cổng chào</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A631" t="str">
+        <v>p tân khánh</v>
+      </c>
+      <c r="B631" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A632" t="str">
+        <v>quan 100</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A633" t="str">
+        <v>trên</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A634" t="str">
+        <v>i mai thị non</v>
+      </c>
+      <c r="B634" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A635" t="str">
+        <v>đường  9 &amp;  5</v>
+      </c>
+      <c r="B635" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A636" t="str">
+        <v>đường</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A637" t="str">
+        <v>kcn</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A638" t="str">
+        <v>kd cư</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A639" t="str">
+        <v>khu chung cư</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A640" t="str">
+        <v>chung cư</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A641" t="str">
+        <v>b.</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A642" t="str">
+        <v>đại lộ</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A643" t="str">
+        <v>19 tháng 5</v>
+      </c>
+      <c r="B643" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A644" t="str">
+        <v xml:space="preserve"> , road, </v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A645" t="str">
+        <v>, road,</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A646" t="str">
+        <v xml:space="preserve">tổ nhân dân tư quản    </v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A647" t="str">
+        <v>bên th</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A648" t="str">
+        <v>hướng về chơ</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A649" t="str">
+        <v>hướng về</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A650" t="str">
+        <v>đối dien</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A651" t="str">
+        <v xml:space="preserve">sát tạp hóa </v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A652" t="str">
+        <v>sát</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A653" t="str">
+        <v xml:space="preserve">tạp hóa </v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A654" t="str">
+        <v xml:space="preserve"> ra  kinh</v>
+      </c>
+      <c r="B654" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A655" t="str">
+        <v>tạp hóa</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A656" t="str">
+        <v>trụ điện</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A657" t="str">
+        <v>trụ điện</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A658" t="str">
+        <v>trụ điện</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A659" t="str">
+        <v>cột điện</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A660" t="str">
+        <v>cột điện</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A661" t="str">
+        <v>đối điện ca</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A662" t="str">
+        <v>đối điện</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A663" t="str">
+        <v>tt</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A664" t="str">
+        <v>tgdđ</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A665" t="str">
+        <v xml:space="preserve"> vẹo phải</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A666" t="str">
+        <v xml:space="preserve"> vào </v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A667" t="str">
+        <v>ngã 4 tganh trung</v>
+      </c>
+      <c r="B667" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A668" t="str">
+        <v xml:space="preserve"> gà chiên</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A669" t="str">
+        <v>mỏ cày nam . bến tr, , , , an thới,  mỏ cày nam, bến tre,</v>
+      </c>
+      <c r="B669" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A670" t="str">
+        <v>đht</v>
+      </c>
+      <c r="B670" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A671" t="str">
+        <v xml:space="preserve"> bách hoá xanh</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A672" t="str">
+        <v>trong cho</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A673" t="str">
+        <v>trong</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A674" t="str">
+        <v xml:space="preserve">dưới chân  ván(, , , , giao thạnh, </v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A675" t="str">
+        <v>dmx</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A676" t="str">
+        <v>quầy</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A677" t="str">
+        <v>tđ</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A678" t="str">
+        <v xml:space="preserve"> nhà sách </v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A679" t="str">
+        <v>chơ cái mít</v>
+      </c>
+      <c r="B679" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680" t="str">
+        <v>ngây</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681" t="str">
+        <v>bên cửa hàng</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682" t="str">
+        <v xml:space="preserve">bên </v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683" t="str">
+        <v>cửa hàng</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684" t="str">
+        <v xml:space="preserve"> vào phà </v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685" t="str">
+        <v xml:space="preserve"> bên xưởng ghế</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686" t="str">
+        <v xml:space="preserve"> bên xưởng ghế</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687" t="str">
+        <v xml:space="preserve">căn cứ </v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A688" t="str">
+        <v xml:space="preserve"> nhà </v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689" t="str">
+        <v xml:space="preserve">vô </v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690" t="str">
+        <v>đuong 824</v>
+      </c>
+      <c r="B690">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691" t="str">
+        <v>âp</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" t="str">
+        <v xml:space="preserve">thpt </v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" t="str">
+        <v xml:space="preserve"> trung học cơ sở</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" t="str">
+        <v>mcn</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" t="str">
+        <v>vào phà</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" t="str">
+        <v xml:space="preserve">vào </v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" t="str">
+        <v>phà</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" t="str">
+        <v>khu du lịch văn hóa thể thao</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" t="str">
+        <v>bt</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" t="str">
+        <v>qa</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" t="str">
+        <v xml:space="preserve">dưới chân </v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" t="str">
+        <v>cuối</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" t="str">
+        <v xml:space="preserve"> hướng về</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705" t="str">
+        <v>10m</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706" t="str">
+        <v>200m</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707" t="str">
+        <v>100m</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708" t="str">
+        <v>50m</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709" t="str">
+        <v>-&gt; 300m</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710" t="str">
+        <v>khom</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712" t="str">
+        <v>nằm đầu</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713" t="str">
+        <v>nằm trên</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714" t="str">
+        <v>300m</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715" t="str">
+        <v>400m</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716" t="str">
+        <v>nằm trên 53,  cầu300m</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717" t="str">
+        <v xml:space="preserve"> nước mặn</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718" t="str">
+        <v>5m</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719" t="str">
+        <v>nhà trọ</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720" t="str">
+        <v>30m</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721" t="str">
+        <v xml:space="preserve">âdp </v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722" t="str">
+        <v xml:space="preserve"> bx</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723" t="str">
+        <v>giữa</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724" t="str">
+        <v>a , ,  , , , , an</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725" t="str">
+        <v>rẽ phải 20m</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726" t="str">
+        <v xml:space="preserve">rẽ phải </v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727" t="str">
+        <v>20m</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728" t="str">
+        <v>ub</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729" t="str">
+        <v>bhx</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730" t="str">
+        <v>vừa qua</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731" t="str">
+        <v xml:space="preserve"> trươngg tiểu học</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732" t="str">
+        <v>gàn bùng binh</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733" t="str">
+        <v xml:space="preserve"> bùng binh</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734" t="str">
+        <v>cột điện</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735" t="str">
+        <v>trọ tuấn thanh</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736" t="str">
+        <v>xuống</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737" t="str">
+        <v xml:space="preserve"> cty tnhh </v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738" t="str">
+        <v xml:space="preserve">tiệm bánh kem </v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739" t="str">
+        <v>tiểu học</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740" t="str">
+        <v>qua  châu phú 1km</v>
+      </c>
+      <c r="B740" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741" t="str">
+        <v>cty</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742" t="str">
+        <v xml:space="preserve"> t học, </v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743" t="str">
+        <v xml:space="preserve"> 2   bệnh viện  lách cổng  1</v>
+      </c>
+      <c r="B743">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744" t="str">
+        <v>câu sô 1</v>
+      </c>
+      <c r="B744" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745" t="str">
+        <v xml:space="preserve"> trung tâm y tế </v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746" t="str">
+        <v>đl</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747" t="str">
+        <v>hl</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748" t="str">
+        <v>tl</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749" t="str">
+        <v>tru điện</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750" t="str">
+        <v>.xa</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751" t="str">
+        <v>xa</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A752" t="str">
+        <v>yamaha bavat,</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A753" t="str">
+        <v>kcn</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A754" t="str">
+        <v>tt</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A755" t="str">
+        <v>thành phố</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A756" t="str">
+        <v>đường</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A757" t="str">
+        <v>đ.</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A758" t="str">
+        <v>kiot</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A759" t="str">
+        <v>827a</v>
+      </c>
+      <c r="B759" s="3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A760" t="str">
+        <v>827b</v>
+      </c>
+      <c r="B760">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A761" t="str">
+        <v>827b</v>
+      </c>
+      <c r="B761">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A762" t="str">
+        <v>827a</v>
+      </c>
+      <c r="B762">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A763" t="str">
+        <v>827d</v>
+      </c>
+      <c r="B763">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A764" t="str">
+        <v>835a</v>
+      </c>
+      <c r="B764">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A765" t="str">
+        <v>835c</v>
+      </c>
+      <c r="B765">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A766" t="str">
+        <v>835b</v>
+      </c>
+      <c r="B766">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A767" t="str">
+        <v>825b</v>
+      </c>
+      <c r="B767">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A768" t="str">
+        <v>151b 151b</v>
+      </c>
+      <c r="B768" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A769" t="str">
+        <v>an vĩnh ngãi</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A770" t="str">
+        <v>826c</v>
+      </c>
+      <c r="B770">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A771" t="str">
+        <v>826a</v>
+      </c>
+      <c r="B771">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>392</v>
+      </c>
+      <c r="B772" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B352" xr:uid="{CFDFFBE1-422E-4732-AF0C-7DF34C187B8B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Op_Text_vigo.xlsx
+++ b/Op_Text_vigo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\study\streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\git\StreamlitStoreMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60977734-ADF3-48BD-A5EB-D11C7015060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9594272-AF28-4A2A-A6FC-BA42D1321903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0B9B151F-247F-437D-879E-F1C04A1A7356}"/>
+    <workbookView xWindow="760" yWindow="600" windowWidth="12520" windowHeight="10200" xr2:uid="{0B9B151F-247F-437D-879E-F1C04A1A7356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="397">
   <si>
     <t>Optional</t>
   </si>
@@ -1243,6 +1243,15 @@
   </si>
   <si>
     <t>26/3</t>
+  </si>
+  <si>
+    <t>phuong</t>
+  </si>
+  <si>
+    <t>quan</t>
+  </si>
+  <si>
+    <t>thanh pho</t>
   </si>
 </sst>
 </file>
@@ -1611,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDFFBE1-422E-4732-AF0C-7DF34C187B8B}">
-  <dimension ref="A1:B772"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
-      <selection activeCell="A772" sqref="A772:B772"/>
+      <selection activeCell="A773" sqref="A773:A775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5834,6 +5843,21 @@
         <v>393</v>
       </c>
     </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Op_Text_vigo.xlsx
+++ b/Op_Text_vigo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\git\StreamlitStoreMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\study\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9594272-AF28-4A2A-A6FC-BA42D1321903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60977734-ADF3-48BD-A5EB-D11C7015060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="12520" windowHeight="10200" xr2:uid="{0B9B151F-247F-437D-879E-F1C04A1A7356}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0B9B151F-247F-437D-879E-F1C04A1A7356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="394">
   <si>
     <t>Optional</t>
   </si>
@@ -1243,15 +1243,6 @@
   </si>
   <si>
     <t>26/3</t>
-  </si>
-  <si>
-    <t>phuong</t>
-  </si>
-  <si>
-    <t>quan</t>
-  </si>
-  <si>
-    <t>thanh pho</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDFFBE1-422E-4732-AF0C-7DF34C187B8B}">
-  <dimension ref="A1:B775"/>
+  <dimension ref="A1:B772"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
-      <selection activeCell="A773" sqref="A773:A775"/>
+      <selection activeCell="A772" sqref="A772:B772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5843,21 +5834,6 @@
         <v>393</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A773" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A774" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A775" t="s">
-        <v>396</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
